--- a/Finflux Automation Excels/Client/5039-CompondingPenalityCharge-BeforeGracePeriod-AfterGracePeriod-5thInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5039-CompondingPenalityCharge-BeforeGracePeriod-AfterGracePeriod-5thInstallment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>OverDueTillDate</t>
   </si>
@@ -174,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +201,29 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -244,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -266,7 +289,17 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,7 +586,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +629,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +674,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>195.5</v>
+        <v>195.55</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -653,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>195.5</v>
+        <v>195.55</v>
       </c>
       <c r="F3" s="6">
         <v>89.33</v>
@@ -708,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +936,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,13 +1078,13 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>841.23</v>
+        <v>841.22</v>
       </c>
       <c r="G4" s="7">
-        <v>3322.06</v>
+        <v>3322.07</v>
       </c>
       <c r="H4" s="6">
-        <v>46.49</v>
+        <v>46.5</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -1090,13 +1123,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>838.09</v>
+        <v>838.06</v>
       </c>
       <c r="G5" s="7">
-        <v>2483.9699999999998</v>
+        <v>2484.0100000000002</v>
       </c>
       <c r="H5" s="6">
-        <v>49.63</v>
+        <v>49.66</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1135,13 +1168,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>863.24</v>
+        <v>863.23</v>
       </c>
       <c r="G6" s="7">
-        <v>1620.73</v>
+        <v>1620.78</v>
       </c>
       <c r="H6" s="6">
-        <v>24.48</v>
+        <v>24.49</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1183,7 +1216,7 @@
         <v>871.21</v>
       </c>
       <c r="G7" s="6">
-        <v>749.52</v>
+        <v>749.57</v>
       </c>
       <c r="H7" s="6">
         <v>16.510000000000002</v>
@@ -1225,7 +1258,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>749.52</v>
+        <v>749.57</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -1240,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>756.9</v>
+        <v>756.95</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1254,7 +1287,7 @@
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6">
-        <v>756.9</v>
+        <v>756.95</v>
       </c>
     </row>
   </sheetData>
@@ -1264,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1342,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>698</v>
+        <v>211</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -1321,19 +1354,19 @@
         <v>31</v>
       </c>
       <c r="E2" s="6">
-        <v>63.55</v>
+        <v>60.43</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7">
-        <v>5154.3599999999997</v>
+        <v>5154.3999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>697</v>
+        <v>210</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>30</v>
@@ -1345,7 +1378,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="6">
-        <v>0.24</v>
+        <v>8.51</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1357,7 +1390,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>695</v>
+        <v>206</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>30</v>
@@ -1369,7 +1402,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="6">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1381,7 +1414,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>692</v>
+        <v>202</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>30</v>
@@ -1393,7 +1426,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="6">
-        <v>2.68</v>
+        <v>0.03</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1405,7 +1438,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>688</v>
+        <v>198</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>30</v>
@@ -1429,7 +1462,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>694</v>
+        <v>209</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>30</v>
@@ -1438,22 +1471,22 @@
         <v>42063</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="6">
-        <v>46.43</v>
+        <v>49.59</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="6">
-        <v>0</v>
+      <c r="J7" s="7">
+        <v>5093.97</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>687</v>
+        <v>208</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
@@ -1462,58 +1495,58 @@
         <v>42063</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="6">
-        <v>46.43</v>
+        <v>0.24</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="7">
-        <v>5090.8100000000004</v>
+      <c r="J8" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>685</v>
+        <v>204</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6">
-        <v>44.38</v>
+        <v>0.24</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="7">
-        <v>5044.38</v>
+      <c r="J9" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>684</v>
+        <v>200</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="6">
-        <v>44.38</v>
+        <v>2.68</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1525,25 +1558,97 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>683</v>
+        <v>196</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="8">
+        <v>42063</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6">
+        <v>46.43</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>195</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8">
+        <v>42035</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6">
+        <v>44.38</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7">
+        <v>5044.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>194</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8">
+        <v>42035</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6">
+        <v>44.38</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>193</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8">
         <v>42009</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E14" s="5">
         <v>5000</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
         <v>5000</v>
       </c>
     </row>
@@ -1556,191 +1661,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="10"/>
+    <col min="6" max="6" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="12">
         <v>42051</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="12">
         <v>42052</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="12">
         <v>42053</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="12">
         <v>42078</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/19/waivecharge/117" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/19/waivecharge/117"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/19/waivecharge/118" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/19/waivecharge/118"/>
-    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/19/waivecharge/119" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/19/waivecharge/119"/>
-    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/19/waivecharge/120" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/19/waivecharge/120"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/7/waivecharge/19" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/19"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/7/waivecharge/20" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/20"/>
+    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/7/waivecharge/21" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/21"/>
+    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/7/waivecharge/22" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Finflux Automation Excels/Client/5039-CompondingPenalityCharge-BeforeGracePeriod-AfterGracePeriod-5thInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5039-CompondingPenalityCharge-BeforeGracePeriod-AfterGracePeriod-5thInstallment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction1" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
     <t>$0.24</t>
   </si>
   <si>
-    <t>$8.51</t>
+    <t>$6.08</t>
   </si>
 </sst>
 </file>
@@ -267,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -293,12 +293,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -629,7 +623,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +708,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>11.67</v>
+        <v>9.24</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -726,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>11.67</v>
+        <v>9.24</v>
       </c>
       <c r="F5" s="6">
         <v>3.16</v>
@@ -741,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,22 +833,22 @@
         <v>42099</v>
       </c>
       <c r="B5" s="6">
-        <v>853.94</v>
+        <v>853.95</v>
       </c>
       <c r="C5" s="7">
-        <v>2459.9499999999998</v>
+        <v>2459.94</v>
       </c>
       <c r="D5" s="6">
-        <v>33.78</v>
+        <v>33.770000000000003</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>8.51</v>
+        <v>6.08</v>
       </c>
       <c r="G5" s="6">
-        <v>896.23</v>
+        <v>893.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -865,7 +859,7 @@
         <v>863.47</v>
       </c>
       <c r="C6" s="7">
-        <v>1596.48</v>
+        <v>1596.47</v>
       </c>
       <c r="D6" s="6">
         <v>24.25</v>
@@ -888,7 +882,7 @@
         <v>871.46</v>
       </c>
       <c r="C7" s="6">
-        <v>725.02</v>
+        <v>725.01</v>
       </c>
       <c r="D7" s="6">
         <v>16.260000000000002</v>
@@ -908,7 +902,7 @@
         <v>42190</v>
       </c>
       <c r="B8" s="6">
-        <v>725.02</v>
+        <v>725.01</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -923,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>732.16</v>
+        <v>732.15</v>
       </c>
     </row>
   </sheetData>
@@ -936,12 +930,14 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1135,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>8.51</v>
+        <v>6.08</v>
       </c>
       <c r="K5" s="6">
-        <v>896.23</v>
+        <v>893.8</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -1152,7 +1148,7 @@
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6">
-        <v>896.23</v>
+        <v>893.8</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1300,7 +1296,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1338,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>211</v>
+        <v>466</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -1354,19 +1350,19 @@
         <v>31</v>
       </c>
       <c r="E2" s="6">
-        <v>60.43</v>
+        <v>58</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7">
-        <v>5154.3999999999996</v>
+        <v>5151.97</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>210</v>
+        <v>465</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>30</v>
@@ -1378,7 +1374,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="6">
-        <v>8.51</v>
+        <v>6.08</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1390,7 +1386,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>206</v>
+        <v>457</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>30</v>
@@ -1414,7 +1410,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>202</v>
+        <v>449</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>30</v>
@@ -1438,7 +1434,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>198</v>
+        <v>441</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>30</v>
@@ -1462,7 +1458,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>209</v>
+        <v>462</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>30</v>
@@ -1486,7 +1482,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>208</v>
+        <v>461</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
@@ -1510,7 +1506,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>204</v>
+        <v>455</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>30</v>
@@ -1534,7 +1530,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>200</v>
+        <v>447</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>30</v>
@@ -1558,7 +1554,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>196</v>
+        <v>439</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>30</v>
@@ -1582,7 +1578,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>195</v>
+        <v>438</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
@@ -1606,7 +1602,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>194</v>
+        <v>437</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>30</v>
@@ -1630,7 +1626,7 @@
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>193</v>
+        <v>436</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>30</v>
@@ -1661,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,128 +1715,128 @@
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>42051</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="8">
         <v>42052</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="13"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="8">
         <v>42053</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>42078</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
